--- a/ilin SD error fc by 100 to 5 Hz.xlsx
+++ b/ilin SD error fc by 100 to 5 Hz.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="non-normalized" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="noramlized" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="relative" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,4 +1296,432 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ilin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ilin_pert</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ilin_pert_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>100 by 1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.960181985059307</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6865118566994691</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6331062270064656</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7761967525886824</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1.1 by 1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0003288133318487537</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.287644269258112e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0002241083117784412</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.860525730372561e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2 by 1</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04159873378219382</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01837230753946901</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01403830033552273</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.005196007520762535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2.5 by 1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08914972806660103</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05944931478485051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02604310202228308</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01428174974303557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>3 by 1</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1516997731156641</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1358601351753674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03976477941343608</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0291308311823795</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1 by 100</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04733508868017138</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02456723393308801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04508432826861394</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02393433312095543</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1 by 1.1</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0002363553050185498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.952861052342331e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0002116833310162507</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.729537312730762e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1 by 2</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.008581571667922682</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001740927543341064</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.007893803741175945</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001717669077716914</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1 by 2.5</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01303664399044324</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003275639009607189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0120667301791173</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.003236532392455428</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1 by 3</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01672777385976058</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.004784310595091059</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01554621127350246</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.004728161267515062</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ilin SD error fc by 100 to 5 Hz.xlsx
+++ b/ilin SD error fc by 100 to 5 Hz.xlsx
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18179.21871969631</v>
+        <v>4561258.624683999</v>
       </c>
       <c r="E2" t="n">
-        <v>966.6494495347434</v>
+        <v>38030.93999483374</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>426015.2012464338</v>
+        <v>4415982.328434124</v>
       </c>
       <c r="E3" t="n">
-        <v>566547.5101335378</v>
+        <v>27582178.00232687</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.518664655231356e-06</v>
+        <v>6.46296221995798e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.309965354694902e-09</v>
+        <v>1.409508186256352e-08</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.40600964576463e-06</v>
+        <v>1.523727246752294e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>3.400297293796198e-09</v>
+        <v>3.987438579922644e-09</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07750080980622064</v>
+        <v>0.1039261558623131</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01514163382614786</v>
+        <v>0.02110346866401732</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0232724947374834</v>
+        <v>0.02334237940785893</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005848791039420925</v>
+        <v>0.005879053558416275</v>
       </c>
     </row>
     <row r="8">
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5161848554852805</v>
+        <v>0.6038346867768605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2297944197781574</v>
+        <v>0.2729739780866412</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1334010855035908</v>
+        <v>0.133576279607253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07597885151342958</v>
+        <v>0.0761264521984879</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.930046231084833</v>
+        <v>2.10209703570768</v>
       </c>
       <c r="E10" t="n">
-        <v>1.54921656263809</v>
+        <v>1.696309315912893</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4603111662204639</v>
+        <v>0.4606242186896819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4753814398879529</v>
+        <v>0.4757743845649219</v>
       </c>
     </row>
     <row r="12">
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0395132680760054</v>
+        <v>0.3285529494867498</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009750796287205134</v>
+        <v>0.1060932062477353</v>
       </c>
     </row>
     <row r="13">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07275416428773721</v>
+        <v>0.08889095129412392</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02453365804694121</v>
+        <v>0.03346012570884688</v>
       </c>
     </row>
     <row r="14">
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.069201342848898e-07</v>
+        <v>4.445808957520021e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>6.610936928436087e-10</v>
+        <v>8.246330197681956e-09</v>
       </c>
     </row>
     <row r="15">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8.97678733244774e-07</v>
+        <v>1.064240879992408e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>1.682733762755776e-09</v>
+        <v>2.351577996575085e-09</v>
       </c>
     </row>
     <row r="16">
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009689956398558652</v>
+        <v>0.0068732572814941</v>
       </c>
       <c r="E16" t="n">
-        <v>3.790170168449451e-05</v>
+        <v>0.0004229522314038737</v>
       </c>
     </row>
     <row r="17">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001460619062414453</v>
+        <v>0.001714976710634799</v>
       </c>
       <c r="E17" t="n">
-        <v>9.144707585812671e-05</v>
+        <v>0.0001239533157832077</v>
       </c>
     </row>
     <row r="18">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002357291465192698</v>
+        <v>0.0167376666667879</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001408724881438443</v>
+        <v>0.001532762242449846</v>
       </c>
     </row>
     <row r="19">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003601929179341725</v>
+        <v>0.004229075320550473</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003367857660734979</v>
+        <v>0.0004535904397549546</v>
       </c>
     </row>
     <row r="20">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004026407851673715</v>
+        <v>0.02871399570744705</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003107912327629561</v>
+        <v>0.003330577483341282</v>
       </c>
     </row>
     <row r="21">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006229920295435476</v>
+        <v>0.007321366930261126</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007398991718210246</v>
+        <v>0.0009929635632255909</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19.06788856674819</v>
+        <v>278.0458023689317</v>
       </c>
       <c r="E2" t="n">
-        <v>4.396929495761203</v>
+        <v>25.38882043936399</v>
       </c>
     </row>
     <row r="3">
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92.3054929293413</v>
+        <v>273.5820866011752</v>
       </c>
       <c r="E3" t="n">
-        <v>106.4469360886952</v>
+        <v>683.7357255638467</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002288400024735967</v>
+        <v>0.0004070835049457575</v>
       </c>
       <c r="E4" t="n">
-        <v>8.924907716503297e-06</v>
+        <v>1.901084836219433e-05</v>
       </c>
     </row>
     <row r="5">
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002201887627315779</v>
+        <v>0.0001976611479373349</v>
       </c>
       <c r="E5" t="n">
-        <v>1.082827921788862e-05</v>
+        <v>1.011147936109308e-05</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04516076831610091</v>
+        <v>0.04974366575189273</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0199615642687772</v>
+        <v>0.02241569850839942</v>
       </c>
     </row>
     <row r="7">
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02474740535973492</v>
+        <v>0.02357479455440398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01240627073979009</v>
+        <v>0.0118312072789119</v>
       </c>
     </row>
     <row r="8">
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1122046100836825</v>
+        <v>0.1185017600474592</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07486482448926678</v>
+        <v>0.07967579336615695</v>
       </c>
     </row>
     <row r="9">
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05704108179446373</v>
+        <v>0.05573531292767107</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04304814420901028</v>
+        <v>0.04207591483577226</v>
       </c>
     </row>
     <row r="10">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2143676321007816</v>
+        <v>0.2211017358018638</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1920575659385494</v>
+        <v>0.1986178588607766</v>
       </c>
     </row>
     <row r="11">
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1046890140937234</v>
+        <v>0.103499715614673</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1063889360395052</v>
+        <v>0.105188024847305</v>
       </c>
     </row>
     <row r="12">
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03898385665690814</v>
+        <v>0.09178471878381692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01936570748593933</v>
+        <v>0.0521568655282965</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05289836564573515</v>
+        <v>0.04774154544406572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03071810919595576</v>
+        <v>0.02929081667097188</v>
       </c>
     </row>
     <row r="14">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001527844301225762</v>
+        <v>0.0003376316061550997</v>
       </c>
       <c r="E14" t="n">
-        <v>5.04248753037476e-06</v>
+        <v>1.454112664284054e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001858120155555044</v>
+        <v>0.0001651914879529603</v>
       </c>
       <c r="E15" t="n">
-        <v>8.044907043388421e-06</v>
+        <v>7.765106033213806e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00610483931577068</v>
+        <v>0.01327544222209401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001207376394127342</v>
+        <v>0.003293163981698412</v>
       </c>
     </row>
     <row r="17">
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007495175531414172</v>
+        <v>0.00663127150787454</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001875418680005232</v>
+        <v>0.001782775966936782</v>
       </c>
     </row>
     <row r="18">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009521820012663823</v>
+        <v>0.02071644130090998</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002327696849015585</v>
+        <v>0.006269098496614362</v>
       </c>
     </row>
     <row r="19">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01177012054598378</v>
+        <v>0.01041334858400809</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003599069142866602</v>
+        <v>0.0034103554208148</v>
       </c>
     </row>
     <row r="20">
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0124443497399016</v>
+        <v>0.0271340431965262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003457384698355303</v>
+        <v>0.009241180803867894</v>
       </c>
     </row>
     <row r="21">
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01547941597913857</v>
+        <v>0.01370136333312064</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005334572190406161</v>
+        <v>0.005045850194493645</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.960181985059307</v>
+        <v>43.16435442393079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6865118566994691</v>
+        <v>3.941985444184744</v>
       </c>
     </row>
     <row r="3">
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6331062270064656</v>
+        <v>0.6229063233015637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7761967525886824</v>
+        <v>0.8090250165801536</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003288133318487537</v>
+        <v>0.0005728139496505468</v>
       </c>
       <c r="E4" t="n">
-        <v>1.287644269258112e-05</v>
+        <v>2.671560836968683e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002241083117784412</v>
+        <v>0.000193556117002146</v>
       </c>
       <c r="E5" t="n">
-        <v>8.860525730372561e-06</v>
+        <v>7.678281359857472e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04159873378219382</v>
+        <v>0.04576997888962237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01837230753946901</v>
+        <v>0.02061061085201739</v>
       </c>
     </row>
     <row r="7">
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01403830033552273</v>
+        <v>0.01335312062930463</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005196007520762535</v>
+        <v>0.004942427020433091</v>
       </c>
     </row>
     <row r="8">
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08914972806660103</v>
+        <v>0.09411697652338012</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05944931478485051</v>
+        <v>0.06324879014731322</v>
       </c>
     </row>
     <row r="9">
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02604310202228308</v>
+        <v>0.0254302538319913</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01428174974303557</v>
+        <v>0.01394568632454747</v>
       </c>
     </row>
     <row r="10">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1516997731156641</v>
+        <v>0.1564424727946795</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1358601351753674</v>
+        <v>0.1404837959651533</v>
       </c>
     </row>
     <row r="11">
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03976477941343608</v>
+        <v>0.03929968843180829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0291308311823795</v>
+        <v>0.02879012538358888</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04733508868017138</v>
+        <v>0.09553220400652419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02456723393308801</v>
+        <v>0.05426151875131818</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04508432826861394</v>
+        <v>0.03735311816906257</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02393433312095543</v>
+        <v>0.02009361472924772</v>
       </c>
     </row>
     <row r="14">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002363553050185498</v>
+        <v>0.0004990328848907999</v>
       </c>
       <c r="E14" t="n">
-        <v>7.952861052342331e-06</v>
+        <v>2.146045840945087e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002116833310162507</v>
+        <v>0.0001740988032655355</v>
       </c>
       <c r="E15" t="n">
-        <v>7.729537312730762e-06</v>
+        <v>6.444256856707177e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008581571667922682</v>
+        <v>0.01742289777035961</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001740927543341064</v>
+        <v>0.004313925782419446</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007893803741175945</v>
+        <v>0.00649660901811627</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001717669077716914</v>
+        <v>0.001431573939222382</v>
       </c>
     </row>
     <row r="18">
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01303664399044324</v>
+        <v>0.02624694451753143</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003275639009607189</v>
+        <v>0.007927489903868752</v>
       </c>
     </row>
     <row r="19">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0120667301791173</v>
+        <v>0.009934973166600556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003236532392455428</v>
+        <v>0.002698025943493785</v>
       </c>
     </row>
     <row r="20">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01672777385976058</v>
+        <v>0.03351110579395271</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004784310595091059</v>
+        <v>0.01139118359193452</v>
       </c>
     </row>
     <row r="21">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01554621127350246</v>
+        <v>0.01280455268746539</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004728161267515062</v>
+        <v>0.003942550003205745</v>
       </c>
     </row>
   </sheetData>
